--- a/2022/iowa/overall_defense_iowa.xlsx
+++ b/2022/iowa/overall_defense_iowa.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="353">
   <si>
     <t>STAT</t>
   </si>
@@ -416,64 +416,70 @@
     <t>27%</t>
   </si>
   <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>49%</t>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>31%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>69%</t>
   </si>
   <si>
     <t>72%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>31%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>0%</t>
   </si>
   <si>
     <t>Below Average</t>
@@ -1520,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2">
         <v>753</v>
@@ -1570,10 +1576,10 @@
         <v>0.916</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G3">
         <v>88</v>
@@ -1623,10 +1629,10 @@
         <v>0.725</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>79</v>
@@ -1676,10 +1682,10 @@
         <v>0.786</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5">
         <v>84</v>
@@ -1729,10 +1735,10 @@
         <v>0.82</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G6">
         <v>71</v>
@@ -1785,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G7">
         <v>67</v>
@@ -1835,10 +1841,10 @@
         <v>0.785</v>
       </c>
       <c r="E8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8">
         <v>63</v>
@@ -1888,10 +1894,10 @@
         <v>0.611</v>
       </c>
       <c r="E9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9">
         <v>29</v>
@@ -1944,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G10">
         <v>24</v>
@@ -1994,10 +2000,10 @@
         <v>0.769</v>
       </c>
       <c r="E11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -2047,10 +2053,10 @@
         <v>0.727</v>
       </c>
       <c r="E12">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -2259,10 +2265,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" s="2">
         <v>111</v>
@@ -2324,7 +2330,7 @@
         <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J17" t="s">
         <v>106</v>
@@ -2377,7 +2383,7 @@
         <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
         <v>106</v>
@@ -2430,7 +2436,7 @@
         <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
         <v>106</v>
@@ -2483,7 +2489,7 @@
         <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
         <v>106</v>
@@ -2536,7 +2542,7 @@
         <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J21" t="s">
         <v>106</v>
@@ -2589,7 +2595,7 @@
         <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
         <v>106</v>
@@ -2642,7 +2648,7 @@
         <v>106</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
         <v>106</v>
@@ -2695,7 +2701,7 @@
         <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
         <v>106</v>
@@ -2748,7 +2754,7 @@
         <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J25" t="s">
         <v>106</v>
@@ -2801,7 +2807,7 @@
         <v>106</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J26" t="s">
         <v>106</v>
@@ -2854,7 +2860,7 @@
         <v>106</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J27" t="s">
         <v>106</v>
@@ -2907,7 +2913,7 @@
         <v>106</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J28" t="s">
         <v>106</v>
@@ -2960,7 +2966,7 @@
         <v>106</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J29" t="s">
         <v>106</v>
@@ -3004,7 +3010,7 @@
         <v>31</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G30" s="2">
         <v>642</v>
@@ -3054,10 +3060,10 @@
         <v>0.916</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G31">
         <v>88</v>
@@ -3107,10 +3113,10 @@
         <v>0.725</v>
       </c>
       <c r="E32">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G32">
         <v>79</v>
@@ -3160,10 +3166,10 @@
         <v>0.786</v>
       </c>
       <c r="E33">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G33">
         <v>84</v>
@@ -3213,10 +3219,10 @@
         <v>0.82</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G34">
         <v>71</v>
@@ -3269,7 +3275,7 @@
         <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G35">
         <v>67</v>
@@ -3319,10 +3325,10 @@
         <v>0.785</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G36">
         <v>63</v>
@@ -3372,10 +3378,10 @@
         <v>0.611</v>
       </c>
       <c r="E37">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G37">
         <v>29</v>
@@ -3428,7 +3434,7 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G38">
         <v>24</v>
@@ -3478,10 +3484,10 @@
         <v>0.769</v>
       </c>
       <c r="E39">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G39">
         <v>17</v>
@@ -3531,10 +3537,10 @@
         <v>0.727</v>
       </c>
       <c r="E40">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -3743,10 +3749,10 @@
         <v>0.767</v>
       </c>
       <c r="E44" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G44" s="2">
         <v>533</v>
@@ -3799,7 +3805,7 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G45">
         <v>75</v>
@@ -3852,7 +3858,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G46">
         <v>73</v>
@@ -3902,10 +3908,10 @@
         <v>0.778</v>
       </c>
       <c r="E47">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G47">
         <v>68</v>
@@ -3955,10 +3961,10 @@
         <v>0.803</v>
       </c>
       <c r="E48">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G48">
         <v>58</v>
@@ -4008,10 +4014,10 @@
         <v>0.913</v>
       </c>
       <c r="E49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G49">
         <v>56</v>
@@ -4061,10 +4067,10 @@
         <v>0.758</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G50">
         <v>52</v>
@@ -4114,10 +4120,10 @@
         <v>0.667</v>
       </c>
       <c r="E51">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G51">
         <v>19</v>
@@ -4167,10 +4173,10 @@
         <v>0.625</v>
       </c>
       <c r="E52">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G52">
         <v>20</v>
@@ -4220,10 +4226,10 @@
         <v>0.72</v>
       </c>
       <c r="E53">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G53">
         <v>16</v>
@@ -4273,10 +4279,10 @@
         <v>0.5</v>
       </c>
       <c r="E54">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G54">
         <v>10</v>
@@ -4488,7 +4494,7 @@
         <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G58" s="2">
         <v>109</v>
@@ -4541,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G59">
         <v>13</v>
@@ -4647,7 +4653,7 @@
         <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G61">
         <v>16</v>
@@ -4859,7 +4865,7 @@
         <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -4971,28 +4977,28 @@
         <v>68</v>
       </c>
       <c r="H67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N67" t="s">
         <v>68</v>
       </c>
       <c r="O67" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P67" t="s">
         <v>36</v>
@@ -5024,22 +5030,22 @@
         <v>68</v>
       </c>
       <c r="H68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N68" t="s">
         <v>36</v>
@@ -5051,7 +5057,7 @@
         <v>68</v>
       </c>
       <c r="Q68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:17" hidden="1">
@@ -5077,22 +5083,22 @@
         <v>68</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N69" t="s">
         <v>36</v>
@@ -5104,7 +5110,7 @@
         <v>68</v>
       </c>
       <c r="Q69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:17" hidden="1">
@@ -5133,7 +5139,7 @@
         <v>106</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J70" t="s">
         <v>106</v>
@@ -5186,7 +5192,7 @@
         <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J71" t="s">
         <v>106</v>
@@ -5289,28 +5295,28 @@
         <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N73" t="s">
         <v>68</v>
       </c>
       <c r="O73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P73" t="s">
         <v>36</v>
@@ -5345,7 +5351,7 @@
         <v>106</v>
       </c>
       <c r="I74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J74" t="s">
         <v>106</v>
@@ -5398,7 +5404,7 @@
         <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J75" t="s">
         <v>106</v>
@@ -5451,7 +5457,7 @@
         <v>106</v>
       </c>
       <c r="I76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J76" t="s">
         <v>106</v>
@@ -5507,16 +5513,16 @@
         <v>106</v>
       </c>
       <c r="J77" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M77" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -5560,16 +5566,16 @@
         <v>106</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -5610,7 +5616,7 @@
         <v>106</v>
       </c>
       <c r="I79" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J79" t="s">
         <v>106</v>
@@ -5660,22 +5666,22 @@
         <v>68</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -5687,7 +5693,7 @@
         <v>68</v>
       </c>
       <c r="Q80" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:17" hidden="1">
@@ -5716,7 +5722,7 @@
         <v>106</v>
       </c>
       <c r="I81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J81" t="s">
         <v>106</v>
@@ -5769,7 +5775,7 @@
         <v>106</v>
       </c>
       <c r="I82" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J82" t="s">
         <v>106</v>
@@ -5822,7 +5828,7 @@
         <v>106</v>
       </c>
       <c r="I83" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J83" t="s">
         <v>106</v>
@@ -5875,7 +5881,7 @@
         <v>106</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J84" t="s">
         <v>106</v>
@@ -5928,7 +5934,7 @@
         <v>106</v>
       </c>
       <c r="I85" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J85" t="s">
         <v>106</v>
@@ -5993,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N87" s="2">
         <v>0</v>
@@ -6005,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:17" hidden="1">
@@ -6129,7 +6135,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>26</v>
@@ -6141,10 +6147,10 @@
         <v>0.769</v>
       </c>
       <c r="E2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -6182,7 +6188,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6206,7 +6212,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -6235,7 +6241,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>26</v>
@@ -6247,10 +6253,10 @@
         <v>0.769</v>
       </c>
       <c r="E4">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -6288,7 +6294,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -6300,10 +6306,10 @@
         <v>0.72</v>
       </c>
       <c r="E5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5">
         <v>16</v>
@@ -6341,7 +6347,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -6362,28 +6368,28 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N6" t="s">
         <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -6394,7 +6400,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -6418,7 +6424,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -6513,7 +6519,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -6525,10 +6531,10 @@
         <v>0.727</v>
       </c>
       <c r="E2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -6566,7 +6572,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6590,7 +6596,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -6619,7 +6625,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -6631,10 +6637,10 @@
         <v>0.727</v>
       </c>
       <c r="E4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -6672,7 +6678,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -6684,10 +6690,10 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6725,7 +6731,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -6746,22 +6752,22 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -6773,12 +6779,12 @@
         <v>68</v>
       </c>
       <c r="Q6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -6802,7 +6808,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -6897,7 +6903,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -6950,7 +6956,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -6974,7 +6980,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -7003,7 +7009,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -7056,7 +7062,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -7109,7 +7115,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -7130,22 +7136,22 @@
         <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N6" t="s">
         <v>36</v>
@@ -7157,12 +7163,12 @@
         <v>68</v>
       </c>
       <c r="Q6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -7186,7 +7192,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -7281,7 +7287,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -7334,7 +7340,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -7358,7 +7364,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -7387,7 +7393,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -7440,7 +7446,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -7493,7 +7499,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -7517,7 +7523,7 @@
         <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
         <v>106</v>
@@ -7546,7 +7552,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -7570,7 +7576,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -7665,7 +7671,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -7718,7 +7724,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -7742,7 +7748,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -7771,7 +7777,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -7824,7 +7830,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -7877,7 +7883,7 @@
     </row>
     <row r="6" spans="1:17" hidden="1">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -7901,7 +7907,7 @@
         <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
         <v>106</v>
@@ -7930,7 +7936,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -7954,7 +7960,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>107</v>
@@ -8061,10 +8067,10 @@
         <v>0.916</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G2">
         <v>88</v>
@@ -8102,7 +8108,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -8126,7 +8132,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -8155,7 +8161,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>107</v>
@@ -8167,10 +8173,10 @@
         <v>0.916</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G4">
         <v>88</v>
@@ -8208,7 +8214,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>92</v>
@@ -8223,7 +8229,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5">
         <v>75</v>
@@ -8261,7 +8267,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -8276,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -8314,7 +8320,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -8335,28 +8341,28 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
         <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" t="s">
         <v>36</v>
@@ -8433,7 +8439,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>102</v>
@@ -8445,10 +8451,10 @@
         <v>0.725</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -8486,7 +8492,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -8510,7 +8516,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -8539,7 +8545,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>102</v>
@@ -8551,10 +8557,10 @@
         <v>0.725</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>79</v>
@@ -8592,7 +8598,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>94</v>
@@ -8607,7 +8613,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5">
         <v>73</v>
@@ -8645,7 +8651,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -8698,7 +8704,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -8722,7 +8728,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -8817,7 +8823,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>98</v>
@@ -8829,10 +8835,10 @@
         <v>0.786</v>
       </c>
       <c r="E2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2">
         <v>84</v>
@@ -8870,7 +8876,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -8894,7 +8900,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -8923,7 +8929,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>98</v>
@@ -8935,10 +8941,10 @@
         <v>0.786</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4">
         <v>84</v>
@@ -8976,7 +8982,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>81</v>
@@ -8988,10 +8994,10 @@
         <v>0.778</v>
       </c>
       <c r="E5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5">
         <v>68</v>
@@ -9029,7 +9035,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>17</v>
@@ -9044,7 +9050,7 @@
         <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -9082,7 +9088,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9106,7 +9112,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>89</v>
@@ -9213,10 +9219,10 @@
         <v>0.82</v>
       </c>
       <c r="E2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>71</v>
@@ -9254,7 +9260,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -9278,7 +9284,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -9307,7 +9313,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>89</v>
@@ -9319,10 +9325,10 @@
         <v>0.82</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>71</v>
@@ -9360,7 +9366,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>76</v>
@@ -9372,10 +9378,10 @@
         <v>0.803</v>
       </c>
       <c r="E5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G5">
         <v>58</v>
@@ -9413,7 +9419,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -9466,7 +9472,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -9490,7 +9496,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -9585,7 +9591,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -9600,7 +9606,7 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>67</v>
@@ -9638,7 +9644,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -9662,7 +9668,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -9691,7 +9697,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>80</v>
@@ -9706,7 +9712,7 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>67</v>
@@ -9744,7 +9750,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>69</v>
@@ -9756,10 +9762,10 @@
         <v>0.913</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G5">
         <v>56</v>
@@ -9797,7 +9803,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -9850,7 +9856,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -9877,16 +9883,16 @@
         <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -9969,7 +9975,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>79</v>
@@ -9981,10 +9987,10 @@
         <v>0.785</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>63</v>
@@ -10022,7 +10028,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -10046,7 +10052,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -10075,7 +10081,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>79</v>
@@ -10087,10 +10093,10 @@
         <v>0.785</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>63</v>
@@ -10128,7 +10134,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>66</v>
@@ -10140,10 +10146,10 @@
         <v>0.758</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5">
         <v>52</v>
@@ -10181,7 +10187,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -10234,7 +10240,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -10261,16 +10267,16 @@
         <v>106</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -10353,7 +10359,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>36</v>
@@ -10365,10 +10371,10 @@
         <v>0.611</v>
       </c>
       <c r="E2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2">
         <v>29</v>
@@ -10406,7 +10412,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -10430,7 +10436,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -10459,7 +10465,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -10471,10 +10477,10 @@
         <v>0.611</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G4">
         <v>29</v>
@@ -10512,7 +10518,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -10524,10 +10530,10 @@
         <v>0.667</v>
       </c>
       <c r="E5">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -10565,7 +10571,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -10580,7 +10586,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -10618,7 +10624,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -10642,7 +10648,7 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
         <v>106</v>
@@ -10737,7 +10743,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -10752,7 +10758,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -10790,7 +10796,7 @@
     </row>
     <row r="3" spans="1:17" hidden="1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
@@ -10814,7 +10820,7 @@
         <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
         <v>106</v>
@@ -10843,7 +10849,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4">
         <v>28</v>
@@ -10858,7 +10864,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -10896,7 +10902,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -10908,10 +10914,10 @@
         <v>0.625</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G5">
         <v>20</v>
@@ -10949,7 +10955,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -11002,7 +11008,7 @@
     </row>
     <row r="7" spans="1:17" hidden="1">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -11023,22 +11029,22 @@
         <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N7" t="s">
         <v>36</v>
@@ -11050,7 +11056,7 @@
         <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
